--- a/biology/Botanique/Gentiane_des_marais/Gentiane_des_marais.xlsx
+++ b/biology/Botanique/Gentiane_des_marais/Gentiane_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana pneumonanthe
 La Gentiane des marais ou Gentiane pneumonanthe (Gentiana pneumonanthe) est une plante herbacée vivace de la famille des Gentianacées. 
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haute de 10 à 60 cm (parfois plus), sa tige porte des feuilles linéaires, longues de 25 à 40 mm et des fleurs bleu vif, rayées de vert à l'extérieur, parsemées de taches arrondies à l'intérieur. Les fleurs font environ 4 cm de long. Elles sont pédonculées, alternes et solitaires à l'aisselle des feuilles supérieures La plante fleurit de juin à octobre[1] selon la localisation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haute de 10 à 60 cm (parfois plus), sa tige porte des feuilles linéaires, longues de 25 à 40 mm et des fleurs bleu vif, rayées de vert à l'extérieur, parsemées de taches arrondies à l'intérieur. Les fleurs font environ 4 cm de long. Elles sont pédonculées, alternes et solitaires à l'aisselle des feuilles supérieures La plante fleurit de juin à octobre selon la localisation.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la plante hôte d’un petit papillon de la famille des Lycaenidae, l’Azuré des Mouillères (Phengaris alcon).
 </t>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe et Asie tempérées. Elle est présente dans la Fagne wallonne (Belgique francophone). En France elle est assez répandue surtout dans l'Ouest, la moitié nord et le Massif central, jusqu'à l'étage montagnard. Elle est très rare dans le Sud-Est, la région méditerranéenne et disséminé çà et là ailleurs. Elle est en régression, principalement en plaine en raison de la disparition des zones humides[2]. Elle est commune dans les tourbières d'altitude et les prés humides tourbeux du Massif central. Dans l'Est de la France Jura, Alpes, Corse elle est remplacée par la gentiane asclépiade qui atteint l'étage subalpin.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe et Asie tempérées. Elle est présente dans la Fagne wallonne (Belgique francophone). En France elle est assez répandue surtout dans l'Ouest, la moitié nord et le Massif central, jusqu'à l'étage montagnard. Elle est très rare dans le Sud-Est, la région méditerranéenne et disséminé çà et là ailleurs. Elle est en régression, principalement en plaine en raison de la disparition des zones humides. Elle est commune dans les tourbières d'altitude et les prés humides tourbeux du Massif central. Dans l'Est de la France Jura, Alpes, Corse elle est remplacée par la gentiane asclépiade qui atteint l'étage subalpin.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est protégée dans de nombreuses régions de France et en Belgique.
 </t>
